--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Horsfield/Thomas_Horsfield.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Horsfield/Thomas_Horsfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Horsfield est un médecin et un  naturaliste américain, né le 12 mai 1773 à Philadelphie et mort le 24 juillet 1859 à Londres.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à Philadelphie et exerce durant de nombreuses années à Java. La Compagnie anglaise des Indes orientales prend le contrôle de l’île, jusqu’alors aux mains des Hollandais en 1811. Horsfield commence alors à collecter des plantes et des animaux à la demande de son ami Sir Thomas Stamford Raffles (1781-1826). En 1819, sa mauvaise santé le force à quitter l’île et il devient le gardien, puis le conservateur de l'India Museum (en) au siège de la Compagnie à Londres, sur Leadenhall Street (bâtiment détruit en 1861 et musée disparu en 1879).
 De ses voyages, il publie Zoological Researches in Java and the Neighbouring Islands en 1824. Il devient le secrétaire-assistant de la Société zoologique de Londres dès sa fondation en 1826.
-Il ne fait cependant pas une carrière très brillante. Ses amis meurent avant de l’avoir parfaitement introduit auprès de la communauté scientifique britannique. Sa formation de naturaliste montrant quelques lacunes, il fait appel à d’autres scientifiques pour l’aider à déterminer ses spécimens, mais ceux-ci font parfois paraître la description des espèces sans toujours l’associer à leurs travaux. Ses récoltes botaniques ont été décrites et étudiées par John Joseph Bennett et Robert Brown[1].
+Il ne fait cependant pas une carrière très brillante. Ses amis meurent avant de l’avoir parfaitement introduit auprès de la communauté scientifique britannique. Sa formation de naturaliste montrant quelques lacunes, il fait appel à d’autres scientifiques pour l’aider à déterminer ses spécimens, mais ceux-ci font parfois paraître la description des espèces sans toujours l’associer à leurs travaux. Ses récoltes botaniques ont été décrites et étudiées par John Joseph Bennett et Robert Brown.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Espèces dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces lui sont dédiées :
 Un écureuil :
@@ -591,7 +607,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1828 : Descriptive catalogue of the lepidopterous insects contained in the Museum of the Honourable East-India Company avec Frederic Moore Texte complet</t>
         </is>
